--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arata/Dropbox/dev/ij/KExcelAPI/src/test/resources/link/arata/kexcelapi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>あ</t>
     <phoneticPr fontId="1"/>
@@ -43,6 +48,10 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -123,11 +132,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -152,6 +162,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -483,39 +498,39 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -526,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -537,7 +552,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>42007.34375</v>
       </c>
@@ -548,7 +563,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
       <c r="AT13" t="s">
         <v>5</v>
       </c>
@@ -557,11 +572,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -570,18 +580,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="str">
-        <f>"a"</f>
-        <v>a</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B1">
         <f>1+2</f>
@@ -596,7 +605,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>"3" &amp; "3"</f>
         <v>33</v>
@@ -606,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>"44.5"</f>
         <v>44.5</v>
@@ -616,7 +625,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>42126</v>
       </c>
@@ -629,10 +638,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,33 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいうえお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理値</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理値</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>150.51</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -492,80 +544,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT13"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="str">
+        <f>C2 &amp;D2</f>
+        <v>123150.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>105.5</v>
+      </c>
+      <c r="G3">
+        <f>C3*3</f>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>192.22200000000001</v>
+      </c>
+      <c r="G4">
+        <f>D4/3</f>
+        <v>64.073999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <f>(1=2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1.5</v>
-      </c>
-      <c r="B7">
-        <v>2.5</v>
-      </c>
-      <c r="C7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>42007.34375</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="C8" s="1">
-        <v>42278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="AT13" t="s">
-        <v>5</v>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>42338</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f>E6+2</f>
+        <v>42340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="AV14" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <f>1+2</f>

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>整数</t>
     <rPh sb="0" eb="2">
       <t>セイスウ</t>
@@ -75,10 +71,6 @@
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/12/1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -100,10 +92,6 @@
     <rPh sb="0" eb="3">
       <t>ロンリチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>150.51</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -184,12 +172,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -547,7 +536,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -566,19 +555,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
@@ -588,17 +577,17 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="4">
+        <v>123</v>
+      </c>
+      <c r="D2" s="4">
+        <v>150.51</v>
+      </c>
+      <c r="E2" s="5">
+        <v>42339</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G2" t="str">
         <f>C2 &amp;D2</f>
@@ -607,7 +596,7 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>123</v>
@@ -622,7 +611,7 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>192.22200000000001</v>
@@ -634,7 +623,7 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -646,7 +635,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>42338</v>

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -92,6 +92,10 @@
     <rPh sb="0" eb="3">
       <t>ロンリチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/12/1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -536,7 +540,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -583,8 +587,8 @@
       <c r="D2" s="4">
         <v>150.51</v>
       </c>
-      <c r="E2" s="5">
-        <v>42339</v>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>9</v>

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -176,13 +176,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -540,7 +541,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -581,7 +582,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>123</v>
       </c>
       <c r="D2" s="4">
@@ -616,6 +617,9 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
       </c>
       <c r="D4">
         <v>192.22200000000001</v>

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -96,6 +96,13 @@
   </si>
   <si>
     <t>2015/12/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -176,7 +183,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,6 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -541,7 +549,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -652,6 +660,18 @@
       <c r="G6" s="1">
         <f>E6+2</f>
         <v>42340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.42395833333333338</v>
+      </c>
+      <c r="G7" s="7">
+        <f>E7+0.1</f>
+        <v>0.52395833333333341</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.15">

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +103,14 @@
     <rPh sb="0" eb="2">
       <t>ジコク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,7 +557,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -561,6 +569,7 @@
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
@@ -582,6 +591,12 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -605,6 +620,10 @@
       <c r="G2" t="str">
         <f>C2 &amp;D2</f>
         <v>123150.51</v>
+      </c>
+      <c r="I2" t="str">
+        <f>H2&amp;""</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1048576"/>
+      <selection activeCell="J6" sqref="J1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -570,6 +570,8 @@
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J1:K6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -599,6 +599,9 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -626,6 +629,10 @@
       <c r="I2" t="str">
         <f>H2&amp;""</f>
         <v/>
+      </c>
+      <c r="J2" t="str">
+        <f>B2&amp;C2</f>
+        <v>あいうえお123</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -84,18 +84,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>true</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>論理値</t>
     <rPh sb="0" eb="3">
       <t>ロンリチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015/12/1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -557,7 +549,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -594,10 +586,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -616,11 +608,11 @@
       <c r="D2" s="4">
         <v>150.51</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
+      <c r="E2" s="5">
+        <v>42339</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G2" t="str">
         <f>C2 &amp;D2</f>
@@ -667,7 +659,7 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -692,7 +684,7 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7">
         <v>0.42395833333333338</v>

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>ブランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>456</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,7 +553,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -631,6 +635,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C3">
         <v>123</v>
       </c>
@@ -640,6 +647,10 @@
       <c r="G3">
         <f>C3*3</f>
         <v>369</v>
+      </c>
+      <c r="J3" t="str">
+        <f>B3&amp;C3</f>
+        <v>456123</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.15">

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>456</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>123.456</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,7 +557,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -656,6 +660,9 @@
     <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>123</v>

--- a/src/test/resources/link/arata/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/arata/kexcelapi/book1.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -673,6 +673,10 @@
       <c r="G4">
         <f>D4/3</f>
         <v>64.073999999999998</v>
+      </c>
+      <c r="J4" t="str">
+        <f>C4&amp;B4</f>
+        <v>123123.456</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.15">
